--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Mercer\Google Drive\  QR\NC MAT 143\Videos\Tech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DE188-97E1-435B-B2BB-FE3091B60E33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="10950"/>
+    <workbookView xWindow="1920" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Original Amount</t>
   </si>
@@ -39,12 +40,15 @@
   </si>
   <si>
     <t>% Change (percent form)</t>
+  </si>
+  <si>
+    <t>Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  Format the decimal form to four decima places and the "percent form" to two decimals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -91,10 +95,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,101 +118,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1905000" y="762000"/>
-          <a:ext cx="4314825" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Use</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>C3, D3, and E3.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,23 +382,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.5</v>
       </c>
@@ -514,7 +426,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6.55</v>
       </c>
@@ -525,8 +437,27 @@
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DE188-97E1-435B-B2BB-FE3091B60E33}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{610DE188-97E1-435B-B2BB-FE3091B60E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A840F12-D88F-41FB-8232-54521741F11B}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1080" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
+    <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Original Amount</t>
   </si>
@@ -43,16 +52,136 @@
   </si>
   <si>
     <t>Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  Format the decimal form to four decima places and the "percent form" to two decimals.</t>
+  </si>
+  <si>
+    <t>Video on autofill</t>
+  </si>
+  <si>
+    <t>percentage change =</t>
+  </si>
+  <si>
+    <t>(New - Original)/Original</t>
+  </si>
+  <si>
+    <t>New/Original - 1</t>
+  </si>
+  <si>
+    <t>Change/Original</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>Cell Should Contain</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Excel Formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
+  </si>
+  <si>
+    <t>Enter Your Name (5 letters)</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Rand1</t>
+  </si>
+  <si>
+    <t>Rand2</t>
+  </si>
+  <si>
+    <t>Rand3</t>
+  </si>
+  <si>
+    <t>Rand4</t>
+  </si>
+  <si>
+    <t>Rand5</t>
+  </si>
+  <si>
+    <t>Rand6</t>
+  </si>
+  <si>
+    <t>Rand7</t>
+  </si>
+  <si>
+    <t>Rand8</t>
+  </si>
+  <si>
+    <t>Rand9</t>
+  </si>
+  <si>
+    <t>Rand10</t>
+  </si>
+  <si>
+    <t>Rand11</t>
+  </si>
+  <si>
+    <t>Rand12</t>
+  </si>
+  <si>
+    <t>Rand13</t>
+  </si>
+  <si>
+    <t>Rand14</t>
+  </si>
+  <si>
+    <t>Rand15</t>
+  </si>
+  <si>
+    <t>Rand16</t>
+  </si>
+  <si>
+    <t>Rand17</t>
+  </si>
+  <si>
+    <t>Rand18</t>
+  </si>
+  <si>
+    <t>Rand19</t>
+  </si>
+  <si>
+    <t>Rand20</t>
+  </si>
+  <si>
+    <t>Rand21</t>
+  </si>
+  <si>
+    <t>Rand22</t>
+  </si>
+  <si>
+    <t>Your Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +196,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,8 +239,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -90,24 +278,367 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -118,6 +649,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EF581D-7EB5-4BA6-B3C8-6AED3FD5BD7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="1828800"/>
+          <a:ext cx="376428" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13827"/>
+            <a:gd name="adj2" fmla="val 51544"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,81 +980,1712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
+      <c r="A1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3.5</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="31" t="str">
+        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10,2))</f>
+        <v>Fill C1</v>
+      </c>
+      <c r="B4" s="31" t="str">
+        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
+        <v>Fill C1</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="32" t="str">
+        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10,2))</f>
+        <v>Fill C1</v>
+      </c>
+      <c r="B5" s="31" t="str">
+        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
+        <v>Fill C1</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="G8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5zDoid/HEfF2FH6+ZzLbIvVOO1WpRz+ZK8tj3+SB5qOeGjnCSun+1Ddp+n45JpBH5fNEY5WGQtKdEaizz8rohw==" saltValue="mKguZGsFqCGcGmiV+xVUeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="8">
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:B5">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$1="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G4:H4" r:id="rId1" display="Video on autofill" xr:uid="{3EB39B6B-2DDD-4CA0-A6AB-14255F8C9968}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AC65-D95A-4F82-A945-BA06112EA708}">
+  <dimension ref="A1:W45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6.55</v>
-      </c>
-      <c r="B3">
-        <v>7.25</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <v>9</v>
+      </c>
+      <c r="Q1">
+        <v>10</v>
+      </c>
+      <c r="R1">
+        <v>11</v>
+      </c>
+      <c r="S1">
+        <v>12</v>
+      </c>
+      <c r="T1">
+        <v>13</v>
+      </c>
+      <c r="U1">
+        <v>14</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+      <c r="W1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>29</v>
+      </c>
+      <c r="R2">
+        <v>947</v>
+      </c>
+      <c r="S2">
+        <v>953</v>
+      </c>
+      <c r="T2">
+        <v>967</v>
+      </c>
+      <c r="U2">
+        <v>971</v>
+      </c>
+      <c r="V2">
+        <v>977</v>
+      </c>
+      <c r="W2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>41</v>
+      </c>
+      <c r="K3">
+        <v>43</v>
+      </c>
+      <c r="L3">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>67</v>
+      </c>
+      <c r="Q3">
+        <v>71</v>
+      </c>
+      <c r="R3">
+        <v>991</v>
+      </c>
+      <c r="S3">
+        <v>997</v>
+      </c>
+      <c r="T3">
+        <v>1009</v>
+      </c>
+      <c r="U3">
+        <v>1013</v>
+      </c>
+      <c r="V3">
+        <v>1019</v>
+      </c>
+      <c r="W3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>83</v>
+      </c>
+      <c r="K4">
+        <v>89</v>
+      </c>
+      <c r="L4">
+        <v>97</v>
+      </c>
+      <c r="M4">
+        <v>101</v>
+      </c>
+      <c r="N4">
+        <v>103</v>
+      </c>
+      <c r="O4">
+        <v>107</v>
+      </c>
+      <c r="P4">
+        <v>109</v>
+      </c>
+      <c r="Q4">
+        <v>113</v>
+      </c>
+      <c r="R4">
+        <v>1031</v>
+      </c>
+      <c r="S4">
+        <v>1033</v>
+      </c>
+      <c r="T4">
+        <v>1039</v>
+      </c>
+      <c r="U4">
+        <v>1049</v>
+      </c>
+      <c r="V4">
+        <v>1051</v>
+      </c>
+      <c r="W4">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>127</v>
+      </c>
+      <c r="I5">
+        <v>131</v>
+      </c>
+      <c r="J5">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>139</v>
+      </c>
+      <c r="L5">
+        <v>149</v>
+      </c>
+      <c r="M5">
+        <v>151</v>
+      </c>
+      <c r="N5">
+        <v>157</v>
+      </c>
+      <c r="O5">
+        <v>163</v>
+      </c>
+      <c r="P5">
+        <v>167</v>
+      </c>
+      <c r="Q5">
+        <v>173</v>
+      </c>
+      <c r="R5">
+        <v>1993</v>
+      </c>
+      <c r="S5">
+        <v>1997</v>
+      </c>
+      <c r="T5">
+        <v>1999</v>
+      </c>
+      <c r="U5">
+        <v>2003</v>
+      </c>
+      <c r="V5">
+        <v>2011</v>
+      </c>
+      <c r="W5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>CODE(MID('Percent Change'!C$1,A6,1))</f>
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <f>MOD(B6,16)</f>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>MOD((B6-C6)/16,16)</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
+        <v>439</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>179</v>
+      </c>
+      <c r="I6">
+        <v>181</v>
+      </c>
+      <c r="J6">
+        <v>191</v>
+      </c>
+      <c r="K6">
+        <v>193</v>
+      </c>
+      <c r="L6">
+        <v>197</v>
+      </c>
+      <c r="M6">
+        <v>199</v>
+      </c>
+      <c r="N6">
+        <v>211</v>
+      </c>
+      <c r="O6">
+        <v>223</v>
+      </c>
+      <c r="P6">
+        <v>227</v>
+      </c>
+      <c r="Q6">
+        <v>229</v>
+      </c>
+      <c r="R6">
+        <v>2063</v>
+      </c>
+      <c r="S6">
+        <v>2069</v>
+      </c>
+      <c r="T6">
+        <v>2081</v>
+      </c>
+      <c r="U6">
+        <v>2083</v>
+      </c>
+      <c r="V6">
+        <v>2087</v>
+      </c>
+      <c r="W6">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <f>CODE(MID('Percent Change'!C$1,A7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
+        <v>839</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>239</v>
+      </c>
+      <c r="J7">
+        <v>241</v>
+      </c>
+      <c r="K7">
+        <v>251</v>
+      </c>
+      <c r="L7">
+        <v>257</v>
+      </c>
+      <c r="M7">
+        <v>263</v>
+      </c>
+      <c r="N7">
+        <v>269</v>
+      </c>
+      <c r="O7">
+        <v>271</v>
+      </c>
+      <c r="P7">
+        <v>277</v>
+      </c>
+      <c r="Q7">
+        <v>281</v>
+      </c>
+      <c r="R7">
+        <v>2131</v>
+      </c>
+      <c r="S7">
+        <v>2137</v>
+      </c>
+      <c r="T7">
+        <v>2141</v>
+      </c>
+      <c r="U7">
+        <v>2143</v>
+      </c>
+      <c r="V7">
+        <v>2153</v>
+      </c>
+      <c r="W7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <f>CODE(MID('Percent Change'!C$1,A8,1))</f>
+        <v>117</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>283</v>
+      </c>
+      <c r="I8">
+        <v>293</v>
+      </c>
+      <c r="J8">
+        <v>307</v>
+      </c>
+      <c r="K8">
+        <v>311</v>
+      </c>
+      <c r="L8">
+        <v>313</v>
+      </c>
+      <c r="M8">
+        <v>317</v>
+      </c>
+      <c r="N8">
+        <v>331</v>
+      </c>
+      <c r="O8">
+        <v>337</v>
+      </c>
+      <c r="P8">
+        <v>347</v>
+      </c>
+      <c r="Q8">
+        <v>349</v>
+      </c>
+      <c r="R8">
+        <v>2221</v>
+      </c>
+      <c r="S8">
+        <v>2237</v>
+      </c>
+      <c r="T8">
+        <v>2239</v>
+      </c>
+      <c r="U8">
+        <v>2243</v>
+      </c>
+      <c r="V8">
+        <v>2251</v>
+      </c>
+      <c r="W8">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>CODE(MID('Percent Change'!C$1,A9,1))</f>
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>353</v>
+      </c>
+      <c r="I9">
+        <v>359</v>
+      </c>
+      <c r="J9">
+        <v>367</v>
+      </c>
+      <c r="K9">
+        <v>373</v>
+      </c>
+      <c r="L9">
+        <v>379</v>
+      </c>
+      <c r="M9">
+        <v>383</v>
+      </c>
+      <c r="N9">
+        <v>389</v>
+      </c>
+      <c r="O9">
+        <v>397</v>
+      </c>
+      <c r="P9">
+        <v>401</v>
+      </c>
+      <c r="Q9">
+        <v>409</v>
+      </c>
+      <c r="R9">
+        <v>2293</v>
+      </c>
+      <c r="S9">
+        <v>2297</v>
+      </c>
+      <c r="T9">
+        <v>2309</v>
+      </c>
+      <c r="U9">
+        <v>2311</v>
+      </c>
+      <c r="V9">
+        <v>2333</v>
+      </c>
+      <c r="W9">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f>CODE(MID('Percent Change'!C$1,A10,1))</f>
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>419</v>
+      </c>
+      <c r="I10">
+        <v>421</v>
+      </c>
+      <c r="J10">
+        <v>431</v>
+      </c>
+      <c r="K10">
+        <v>433</v>
+      </c>
+      <c r="L10">
+        <v>439</v>
+      </c>
+      <c r="M10">
+        <v>443</v>
+      </c>
+      <c r="N10">
+        <v>449</v>
+      </c>
+      <c r="O10">
+        <v>457</v>
+      </c>
+      <c r="P10">
+        <v>461</v>
+      </c>
+      <c r="Q10">
+        <v>463</v>
+      </c>
+      <c r="R10">
+        <v>2371</v>
+      </c>
+      <c r="S10">
+        <v>2377</v>
+      </c>
+      <c r="T10">
+        <v>2381</v>
+      </c>
+      <c r="U10">
+        <v>2383</v>
+      </c>
+      <c r="V10">
+        <v>2389</v>
+      </c>
+      <c r="W10">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
+        <v>3778</v>
+      </c>
+      <c r="F11">
+        <v>1103515245</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>467</v>
+      </c>
+      <c r="I11">
+        <v>479</v>
+      </c>
+      <c r="J11">
+        <v>487</v>
+      </c>
+      <c r="K11">
+        <v>491</v>
+      </c>
+      <c r="L11">
+        <v>499</v>
+      </c>
+      <c r="M11">
+        <v>503</v>
+      </c>
+      <c r="N11">
+        <v>509</v>
+      </c>
+      <c r="O11">
+        <v>521</v>
+      </c>
+      <c r="P11">
+        <v>523</v>
+      </c>
+      <c r="Q11">
+        <v>541</v>
+      </c>
+      <c r="R11">
+        <v>2437</v>
+      </c>
+      <c r="S11">
+        <v>2441</v>
+      </c>
+      <c r="T11">
+        <v>2447</v>
+      </c>
+      <c r="U11">
+        <v>2459</v>
+      </c>
+      <c r="V11">
+        <v>2467</v>
+      </c>
+      <c r="W11">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <f ca="1">MOD(B11*F11+F12,F13)</f>
+        <v>5331</v>
+      </c>
+      <c r="C12">
+        <f ca="1">MOD(B12,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f ca="1">B12/F$13</f>
+        <v>0.162689208984375</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>12345</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>547</v>
+      </c>
+      <c r="I12">
+        <v>557</v>
+      </c>
+      <c r="J12">
+        <v>563</v>
+      </c>
+      <c r="K12">
+        <v>569</v>
+      </c>
+      <c r="L12">
+        <v>571</v>
+      </c>
+      <c r="M12">
+        <v>577</v>
+      </c>
+      <c r="N12">
+        <v>587</v>
+      </c>
+      <c r="O12">
+        <v>593</v>
+      </c>
+      <c r="P12">
+        <v>599</v>
+      </c>
+      <c r="Q12">
+        <v>601</v>
+      </c>
+      <c r="R12">
+        <v>2539</v>
+      </c>
+      <c r="S12">
+        <v>2543</v>
+      </c>
+      <c r="T12">
+        <v>2549</v>
+      </c>
+      <c r="U12">
+        <v>2551</v>
+      </c>
+      <c r="V12">
+        <v>2557</v>
+      </c>
+      <c r="W12">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15">
+        <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
+        <v>22544</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
+        <v>0.68798828125</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>607</v>
+      </c>
+      <c r="I13">
+        <v>613</v>
+      </c>
+      <c r="J13">
+        <v>617</v>
+      </c>
+      <c r="K13">
+        <v>619</v>
+      </c>
+      <c r="L13">
+        <v>631</v>
+      </c>
+      <c r="M13">
+        <v>641</v>
+      </c>
+      <c r="N13">
+        <v>643</v>
+      </c>
+      <c r="O13">
+        <v>647</v>
+      </c>
+      <c r="P13">
+        <v>653</v>
+      </c>
+      <c r="Q13">
+        <v>659</v>
+      </c>
+      <c r="R13">
+        <v>2621</v>
+      </c>
+      <c r="S13">
+        <v>2633</v>
+      </c>
+      <c r="T13">
+        <v>2647</v>
+      </c>
+      <c r="U13">
+        <v>2657</v>
+      </c>
+      <c r="V13">
+        <v>2659</v>
+      </c>
+      <c r="W13">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>3849</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.117462158203125</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>661</v>
+      </c>
+      <c r="I14">
+        <v>673</v>
+      </c>
+      <c r="J14">
+        <v>677</v>
+      </c>
+      <c r="K14">
+        <v>683</v>
+      </c>
+      <c r="L14">
+        <v>691</v>
+      </c>
+      <c r="M14">
+        <v>701</v>
+      </c>
+      <c r="N14">
+        <v>709</v>
+      </c>
+      <c r="O14">
+        <v>719</v>
+      </c>
+      <c r="P14">
+        <v>727</v>
+      </c>
+      <c r="Q14">
+        <v>733</v>
+      </c>
+      <c r="R14">
+        <v>2689</v>
+      </c>
+      <c r="S14">
+        <v>2693</v>
+      </c>
+      <c r="T14">
+        <v>2699</v>
+      </c>
+      <c r="U14">
+        <v>2707</v>
+      </c>
+      <c r="V14">
+        <v>2711</v>
+      </c>
+      <c r="W14">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>21774</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66448974609375</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>739</v>
+      </c>
+      <c r="I15">
+        <v>743</v>
+      </c>
+      <c r="J15">
+        <v>751</v>
+      </c>
+      <c r="K15">
+        <v>757</v>
+      </c>
+      <c r="L15">
+        <v>761</v>
+      </c>
+      <c r="M15">
+        <v>769</v>
+      </c>
+      <c r="N15">
+        <v>773</v>
+      </c>
+      <c r="O15">
+        <v>787</v>
+      </c>
+      <c r="P15">
+        <v>797</v>
+      </c>
+      <c r="Q15">
+        <v>809</v>
+      </c>
+      <c r="R15">
+        <v>2749</v>
+      </c>
+      <c r="S15">
+        <v>2753</v>
+      </c>
+      <c r="T15">
+        <v>2767</v>
+      </c>
+      <c r="U15">
+        <v>2777</v>
+      </c>
+      <c r="V15">
+        <v>2789</v>
+      </c>
+      <c r="W15">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>11055</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.337371826171875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>811</v>
+      </c>
+      <c r="I16">
+        <v>821</v>
+      </c>
+      <c r="J16">
+        <v>823</v>
+      </c>
+      <c r="K16">
+        <v>827</v>
+      </c>
+      <c r="L16">
+        <v>829</v>
+      </c>
+      <c r="M16">
+        <v>839</v>
+      </c>
+      <c r="N16">
+        <v>853</v>
+      </c>
+      <c r="O16">
+        <v>857</v>
+      </c>
+      <c r="P16">
+        <v>859</v>
+      </c>
+      <c r="Q16">
+        <v>863</v>
+      </c>
+      <c r="R16">
+        <v>2833</v>
+      </c>
+      <c r="S16">
+        <v>2837</v>
+      </c>
+      <c r="T16">
+        <v>2843</v>
+      </c>
+      <c r="U16">
+        <v>2851</v>
+      </c>
+      <c r="V16">
+        <v>2857</v>
+      </c>
+      <c r="W16">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>25916</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.7908935546875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>877</v>
+      </c>
+      <c r="I17">
+        <v>881</v>
+      </c>
+      <c r="J17">
+        <v>883</v>
+      </c>
+      <c r="K17">
+        <v>887</v>
+      </c>
+      <c r="L17">
+        <v>907</v>
+      </c>
+      <c r="M17">
+        <v>911</v>
+      </c>
+      <c r="N17">
+        <v>919</v>
+      </c>
+      <c r="O17">
+        <v>929</v>
+      </c>
+      <c r="P17">
+        <v>937</v>
+      </c>
+      <c r="Q17">
+        <v>941</v>
+      </c>
+      <c r="R17">
+        <v>2909</v>
+      </c>
+      <c r="S17">
+        <v>2917</v>
+      </c>
+      <c r="T17">
+        <v>2927</v>
+      </c>
+      <c r="U17">
+        <v>2939</v>
+      </c>
+      <c r="V17">
+        <v>2953</v>
+      </c>
+      <c r="W17">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>4805</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.146636962890625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>13338</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40704345703125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>19275</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.588226318359375</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6440</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.196533203125</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5697</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.173858642578125</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>30694</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.93670654296875</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>20775</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.634002685546875</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>8148</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2486572265625</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>21885</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.667877197265625</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>11378</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34722900390625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>22723</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.693450927734375</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>25920</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.791015625</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>19577</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.597442626953125</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7614</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.23236083984375</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>15903</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.485321044921875</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5484</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1673583984375</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="M45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:E7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{610DE188-97E1-435B-B2BB-FE3091B60E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A840F12-D88F-41FB-8232-54521741F11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F246299-8A16-4F0F-B4D7-CFCB8B311A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="876" windowWidth="22344" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
     <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="58" yWindow="73" windowWidth="1862" windowHeight="969" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -508,24 +511,7 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -565,39 +551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
@@ -618,6 +571,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -715,6 +718,27 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}">
+  <header guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}" dateTime="2021-02-02T11:24:23" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}" name="Richard Ketchersid" id="-1739554998" dateTime="2021-02-02T11:24:23"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,18 +1022,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1029,120 +1053,127 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="31" t="str">
+      <c r="A4" s="15" t="str">
         <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10,2))</f>
         <v>Fill C1</v>
       </c>
-      <c r="B4" s="31" t="str">
+      <c r="B4" s="15" t="str">
         <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
         <v>Fill C1</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="16" t="str">
         <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10,2))</f>
         <v>Fill C1</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="15" t="str">
         <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
         <v>Fill C1</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1">
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="G8" s="9" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="G9" s="11" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5zDoid/HEfF2FH6+ZzLbIvVOO1WpRz+ZK8tj3+SB5qOeGjnCSun+1Ddp+n45JpBH5fNEY5WGQtKdEaizz8rohw==" saltValue="mKguZGsFqCGcGmiV+xVUeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <customSheetViews>
+    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
+      <selection activeCell="E17" sqref="E17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="8">
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B12:C12"/>
@@ -1150,7 +1181,6 @@
     <mergeCell ref="C7:E9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:B5">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1942,7 +1972,7 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="10">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22544</v>
       </c>
@@ -2017,7 +2047,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>3849</v>
       </c>
@@ -2089,7 +2119,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>21774</v>
       </c>
@@ -2161,7 +2191,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>11055</v>
       </c>
@@ -2233,7 +2263,7 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>25916</v>
       </c>
@@ -2305,7 +2335,7 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>4805</v>
       </c>
@@ -2326,7 +2356,7 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>13338</v>
       </c>
@@ -2347,7 +2377,7 @@
       <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>19275</v>
       </c>
@@ -2368,7 +2398,7 @@
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>6440</v>
       </c>
@@ -2389,7 +2419,7 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>5697</v>
       </c>
@@ -2405,13 +2435,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>30694</v>
       </c>
@@ -2427,13 +2457,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>20775</v>
       </c>
@@ -2449,13 +2479,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>8148</v>
       </c>
@@ -2471,13 +2501,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>21885</v>
       </c>
@@ -2493,13 +2523,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>11378</v>
       </c>
@@ -2515,13 +2545,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>22723</v>
       </c>
@@ -2537,13 +2567,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>25920</v>
       </c>
@@ -2559,13 +2589,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>19577</v>
       </c>
@@ -2581,13 +2611,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>7614</v>
       </c>
@@ -2603,13 +2633,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M31" s="15"/>
+      <c r="M31" s="10"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>15903</v>
       </c>
@@ -2625,13 +2655,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="15"/>
+      <c r="M32" s="10"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>5484</v>
       </c>
@@ -2647,45 +2677,51 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="M34" s="15"/>
+      <c r="M34" s="10"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="M35" s="15"/>
+      <c r="M35" s="10"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="M36" s="15"/>
+      <c r="M36" s="10"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="M37" s="15"/>
+      <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="M38" s="15"/>
+      <c r="M38" s="10"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="M39" s="15"/>
+      <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="M40" s="15"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="M41" s="15"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="M42" s="15"/>
+      <c r="M42" s="10"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="M43" s="15"/>
+      <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="M44" s="15"/>
+      <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="M45" s="15"/>
+      <c r="M45" s="10"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
+      <selection activeCell="B6" sqref="B6:B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F246299-8A16-4F0F-B4D7-CFCB8B311A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EF6CE561-EDD1-45E2-9D0B-1C16651C6BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="876" windowWidth="22344" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1470" windowWidth="17580" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="58" yWindow="73" windowWidth="1862" windowHeight="969" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1172" windowHeight="877" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Original Amount</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Your Name</t>
+  </si>
+  <si>
+    <t>Upon filling in your name, your personal numbers will appear.</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -503,13 +506,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -572,6 +612,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -619,8 +662,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -660,13 +709,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>56388</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -721,8 +770,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}">
-  <header guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}" dateTime="2021-02-02T11:24:23" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}">
+  <header guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}" dateTime="2021-02-21T09:11:06" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -737,7 +786,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{12E8930D-19F9-4623-9E00-A8F75B02AABC}" name="Richard Ketchersid" id="-1739554998" dateTime="2021-02-02T11:24:23"/>
+  <userInfo guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}" name="Richard Ketchersid" id="-1739567973" dateTime="2021-02-21T09:11:06"/>
 </users>
 </file>
 
@@ -1004,194 +1053,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="14" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="str">
-        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10,2))</f>
-        <v>Fill C1</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
-        <v>Fill C1</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="24" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="15" t="str">
+        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D14*10,2))</f>
+        <v>Fill C4</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
+        <v>Fill C4</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
-      <c r="A5" s="16" t="str">
-        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10,2))</f>
-        <v>Fill C1</v>
-      </c>
-      <c r="B5" s="15" t="str">
-        <f>IF(C1="Your Name","Fill C1",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
-        <v>Fill C1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
-      <c r="G6" s="19" t="s">
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="16" t="str">
+        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D15*10,2))</f>
+        <v>Fill C4</v>
+      </c>
+      <c r="B8" s="15" t="str">
+        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
+        <v>Fill C4</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="25" t="s">
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="G7" s="2" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="G8" s="4" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="G9" s="6" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="G10" s="7" t="s">
+    <row r="13" spans="1:8">
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
-      <c r="D11" s="34" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="8" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="23" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="34" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="34" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5zDoid/HEfF2FH6+ZzLbIvVOO1WpRz+ZK8tj3+SB5qOeGjnCSun+1Ddp+n45JpBH5fNEY5WGQtKdEaizz8rohw==" saltValue="mKguZGsFqCGcGmiV+xVUeg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KQvbk36aG8oCqWeGpX+EFQ3ExzGbdLjVmWbUe23bzkMytIR82Znec2mnXYXpjNYphQ43wU1ymYycf8Ih1CiWKw==" saltValue="2ugAnEaDnDhxLw5WbXQVjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="8">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
+  <mergeCells count="9">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C10:E12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:B5">
+  <conditionalFormatting sqref="A7:B8">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C$1="Your Name"</formula>
+      <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G4:H4" r:id="rId1" display="Video on autofill" xr:uid="{3EB39B6B-2DDD-4CA0-A6AB-14255F8C9968}"/>
+    <hyperlink ref="G7:H7" r:id="rId2" display="Video on autofill" xr:uid="{3EB39B6B-2DDD-4CA0-A6AB-14255F8C9968}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1203,7 +1266,7 @@
       <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1475,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f>CODE(MID('Percent Change'!C$1,A6,1))</f>
+        <f>CODE(MID('Percent Change'!C$4,A6,1))</f>
         <v>89</v>
       </c>
       <c r="C6">
@@ -1547,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f>CODE(MID('Percent Change'!C$1,A7,1))</f>
+        <f>CODE(MID('Percent Change'!C$4,A7,1))</f>
         <v>111</v>
       </c>
       <c r="C7">
@@ -1619,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>CODE(MID('Percent Change'!C$1,A8,1))</f>
+        <f>CODE(MID('Percent Change'!C$4,A8,1))</f>
         <v>117</v>
       </c>
       <c r="C8">
@@ -1691,7 +1754,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>CODE(MID('Percent Change'!C$1,A9,1))</f>
+        <f>CODE(MID('Percent Change'!C$4,A9,1))</f>
         <v>114</v>
       </c>
       <c r="C9">
@@ -1763,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f>CODE(MID('Percent Change'!C$1,A10,1))</f>
+        <f>CODE(MID('Percent Change'!C$4,A10,1))</f>
         <v>32</v>
       </c>
       <c r="C10">

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{EF6CE561-EDD1-45E2-9D0B-1C16651C6BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4EE164FE-E69E-47B0-B5C1-E855FC58A498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="17580" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
-    <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Original Amount</t>
   </si>
@@ -181,13 +182,29 @@
   </si>
   <si>
     <t>Upon filling in your name, your personal numbers will appear.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Format the decimal form to four decimal places and the "percent form" to two decimals.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +248,17 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +301,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -543,13 +575,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -612,8 +724,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,44 +750,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -677,7 +909,33 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -769,12 +1027,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56388</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86A8B1C-4136-4B58-89F3-AA518B412911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2929890" y="2512695"/>
+          <a:ext cx="345948" cy="641985"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13827"/>
+            <a:gd name="adj2" fmla="val 51544"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}">
-  <header guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}" dateTime="2021-02-21T09:11:06" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}">
+  <header guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}" dateTime="2021-02-22T09:59:27" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -786,7 +1111,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{AE76CCFC-7637-4236-B3F9-FB0340FC6A61}" name="Richard Ketchersid" id="-1739567973" dateTime="2021-02-21T09:11:06"/>
+  <userInfo guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}" name="Richard Ketchersid" id="-1739557268" dateTime="2021-02-22T09:59:27"/>
 </users>
 </file>
 
@@ -1056,7 +1381,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,34 +1391,48 @@
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="G4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
+      <c r="D5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -1111,138 +1450,374 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15" t="str">
-        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D14*10,2))</f>
-        <v>Fill C4</v>
+        <f>IF(C4="Your Name","Enter your",ROUND(Random!D14*10,2))</f>
+        <v>Enter your</v>
       </c>
       <c r="B7" s="15" t="str">
-        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
-        <v>Fill C4</v>
+        <f>IF(C4="Your Name","name in C4 and",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
+        <v>name in C4 and</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="16" t="str">
-        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D15*10,2))</f>
-        <v>Fill C4</v>
+        <f>IF(C4="Your Name","your values ",ROUND(Random!D15*10,2))</f>
+        <v xml:space="preserve">your values </v>
       </c>
       <c r="B8" s="15" t="str">
-        <f>IF(C4="Your Name","Fill C4",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
-        <v>Fill C4</v>
+        <f>IF(C4="Your Name","will appear",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
+        <v>will appear</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="C10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="19" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KQvbk36aG8oCqWeGpX+EFQ3ExzGbdLjVmWbUe23bzkMytIR82Znec2mnXYXpjNYphQ43wU1ymYycf8Ih1CiWKw==" saltValue="2ugAnEaDnDhxLw5WbXQVjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xMevCnl4KX/hTRbdGhqN2fdoBbT1naQOeJQ/7KVDNZUHBFLM7fALUHyllAA4Ygqw05A1AWSgYaboAyUmlHjRHQ==" saltValue="5cK2MkYC+bv1ZqeeRk5cUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D18" sqref="D18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C10:E13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A7:B8">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C$4="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{AAE498D7-1C87-4C18-BCE7-C7B64CED6D0A}">
+            <xm:f>AND(NOT($C$4="Your Name"),C7&lt;&gt;Sheet1!C7)</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{3094A653-A4C3-4433-8820-83D8037BCDCF}">
+            <xm:f>AND(NOT($C$4="Your Name"),C7=Sheet1!C7)</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="9" tint="-0.24994659260841701"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C7:E8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90B7FD0-59F4-4CAB-8656-0D8BCCB1BD32}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="37"/>
+    <col min="7" max="7" width="14.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="46" t="str">
+        <f>'Percent Change'!A7</f>
+        <v>Enter your</v>
+      </c>
+      <c r="B7" s="46" t="str">
+        <f>'Percent Change'!B7</f>
+        <v>name in C4 and</v>
+      </c>
+      <c r="C7" s="47" t="e">
+        <f>B7-A7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="47" t="e">
+        <f>C7/A7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="48" t="e">
+        <f>D7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A8" s="46" t="str">
+        <f>'Percent Change'!A8</f>
+        <v xml:space="preserve">your values </v>
+      </c>
+      <c r="B8" s="46" t="str">
+        <f>'Percent Change'!B8</f>
+        <v>will appear</v>
+      </c>
+      <c r="C8" s="47" t="e">
+        <f>B8-A8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="47" t="e">
+        <f>C8/A8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="48" t="e">
+        <f>D8</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G9" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="G10" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="G11" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="G12" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D14" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="67"/>
+      <c r="B15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
+      <selection activeCell="A2" sqref="A2:E2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="9">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C10:E12"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1250,15 +1825,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G7:H7" r:id="rId2" display="Video on autofill" xr:uid="{3EB39B6B-2DDD-4CA0-A6AB-14255F8C9968}"/>
+    <hyperlink ref="G7:H7" r:id="rId1" display="Video on autofill" xr:uid="{B64859F7-2AD2-4F84-A563-C3EEEC610EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AC65-D95A-4F82-A945-BA06112EA708}">
   <dimension ref="A1:W45"/>
   <sheetViews>

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4EE164FE-E69E-47B0-B5C1-E855FC58A498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{9EA94BE5-3165-4382-9DBC-71D092527226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="17580" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +247,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -724,6 +715,53 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,9 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -780,7 +815,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -803,31 +843,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -852,14 +867,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -884,24 +891,8 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1094,8 +1085,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}">
-  <header guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}" dateTime="2021-02-22T09:59:27" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}">
+  <header guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}" dateTime="2021-03-11T11:22:48" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1111,7 +1102,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{43A8D30A-EEB9-4F2B-ADEB-F639691A7CDC}" name="Richard Ketchersid" id="-1739557268" dateTime="2021-02-22T09:59:27"/>
+  <userInfo guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}" name="Richard Ketchersid" id="-1739579954" dateTime="2021-03-11T11:22:48"/>
 </users>
 </file>
 
@@ -1381,7 +1372,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,34 +1388,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="68" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1505,26 +1496,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:8">
       <c r="D14" s="1" t="s">
@@ -1535,10 +1526,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1553,10 +1544,10 @@
       <c r="F16" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xMevCnl4KX/hTRbdGhqN2fdoBbT1naQOeJQ/7KVDNZUHBFLM7fALUHyllAA4Ygqw05A1AWSgYaboAyUmlHjRHQ==" saltValue="5cK2MkYC+bv1ZqeeRk5cUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UrMWsEQcwthwhMB6wDO5VOb0MIraD92Wo3p1CHVBWDoqBIj2tLPhjVnmrJ/wJx3C2MqiyCPTrL+vvzhtBbFIfQ==" saltValue="/VLfWxpWvZ1fhpBUudX8KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1573,9 +1564,12 @@
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{66755ED4-3614-4EB7-8CFA-93192F3C08E4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1618,188 +1612,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="37"/>
-    <col min="7" max="7" width="14.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="46" t="str">
+      <c r="A7" s="23" t="str">
         <f>'Percent Change'!A7</f>
         <v>Enter your</v>
       </c>
-      <c r="B7" s="46" t="str">
+      <c r="B7" s="23" t="str">
         <f>'Percent Change'!B7</f>
         <v>name in C4 and</v>
       </c>
-      <c r="C7" s="47" t="e">
+      <c r="C7" s="24" t="e">
         <f>B7-A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="47" t="e">
+      <c r="D7" s="24" t="e">
         <f>C7/A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="48" t="e">
+      <c r="E7" s="25" t="e">
         <f>D7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="46" t="str">
+      <c r="A8" s="23" t="str">
         <f>'Percent Change'!A8</f>
         <v xml:space="preserve">your values </v>
       </c>
-      <c r="B8" s="46" t="str">
+      <c r="B8" s="23" t="str">
         <f>'Percent Change'!B8</f>
         <v>will appear</v>
       </c>
-      <c r="C8" s="47" t="e">
+      <c r="C8" s="24" t="e">
         <f>B8-A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="47" t="e">
+      <c r="D8" s="24" t="e">
         <f>C8/A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="48" t="e">
+      <c r="E8" s="25" t="e">
         <f>D8</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="56" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="G10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="G11" s="56" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="G11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="G12" s="56" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="G12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="64" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1809,15 +1803,15 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:E12"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:E12"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{9EA94BE5-3165-4382-9DBC-71D092527226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2BF65742-E259-4476-93DD-E7E9723EB128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="17580" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Original Amount</t>
   </si>
@@ -198,6 +198,18 @@
       </rPr>
       <t>Format the decimal form to four decimal places and the "percent form" to two decimals.</t>
     </r>
+  </si>
+  <si>
+    <t>New - Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change = </t>
+  </si>
+  <si>
+    <t>(New - Original)/Original  = Change/Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage change =  </t>
   </si>
 </sst>
 </file>
@@ -652,7 +664,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -762,6 +774,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,14 +830,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -843,56 +906,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -956,16 +977,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56388</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -980,13 +1001,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2987040" y="1828800"/>
-          <a:ext cx="376428" cy="609600"/>
+          <a:off x="3267075" y="2762249"/>
+          <a:ext cx="66675" cy="361951"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 13827"/>
-            <a:gd name="adj2" fmla="val 51544"/>
+            <a:gd name="adj1" fmla="val 9480"/>
+            <a:gd name="adj2" fmla="val 49218"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1085,8 +1106,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}">
-  <header guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}" dateTime="2021-03-11T11:22:48" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{25DA06F6-3848-417E-9001-251D3540AD12}">
+  <header guid="{25DA06F6-3848-417E-9001-251D3540AD12}" dateTime="2021-05-13T13:29:23" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1102,7 +1123,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{88CE9DC2-ABFB-4BCA-BEFE-AAF543E2B318}" name="Richard Ketchersid" id="-1739579954" dateTime="2021-03-11T11:22:48"/>
+  <userInfo guid="{25DA06F6-3848-417E-9001-251D3540AD12}" name="Richard Ketchersid" id="-1739537818" dateTime="2021-05-13T13:29:23"/>
 </users>
 </file>
 
@@ -1369,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1388,34 +1409,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1496,68 +1517,82 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="1"/>
     </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UrMWsEQcwthwhMB6wDO5VOb0MIraD92Wo3p1CHVBWDoqBIj2tLPhjVnmrJ/wJx3C2MqiyCPTrL+vvzhtBbFIfQ==" saltValue="/VLfWxpWvZ1fhpBUudX8KA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JEdfMgvBemp4+J7Yd98poaE7/X0mPBWTSwDOxO0yC5S6wuPEKHUkvDPdHk/RVx6+8ZMUWea6T423Hm/2FfNxkQ==" saltValue="kYsob8O5bToXfbkwb3P1TQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A13" sqref="A13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="C10:E13"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
     <cfRule type="expression" dxfId="3" priority="3">
@@ -1625,20 +1660,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
@@ -1687,10 +1722,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="56"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="23" t="str">
@@ -1715,17 +1750,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="G10" s="27" t="s">
         <v>12</v>
       </c>
@@ -1734,9 +1769,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="G11" s="27" t="s">
         <v>14</v>
       </c>
@@ -1745,9 +1780,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="G12" s="27" t="s">
         <v>16</v>
       </c>
@@ -1764,11 +1799,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="29" t="s">
         <v>20</v>
       </c>
@@ -1778,22 +1813,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="31"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1803,15 +1838,15 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="C10:E12"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2BF65742-E259-4476-93DD-E7E9723EB128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E26F86E1-04BA-40E3-BD16-B0B51BEF6C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1470" windowWidth="17580" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1176" windowWidth="14064" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
@@ -184,8 +184,39 @@
     <t>Upon filling in your name, your personal numbers will appear.</t>
   </si>
   <si>
+    <t>New - Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change = </t>
+  </si>
+  <si>
+    <t>(New - Original)/Original  = Change/Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage change =  </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C7:E3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
     </r>
     <r>
       <rPr>
@@ -198,18 +229,6 @@
       </rPr>
       <t>Format the decimal form to four decimal places and the "percent form" to two decimals.</t>
     </r>
-  </si>
-  <si>
-    <t>New - Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change = </t>
-  </si>
-  <si>
-    <t>(New - Original)/Original  = Change/Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage change =  </t>
   </si>
 </sst>
 </file>
@@ -777,6 +796,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,32 +825,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -879,41 +904,35 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1106,8 +1125,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{25DA06F6-3848-417E-9001-251D3540AD12}">
-  <header guid="{25DA06F6-3848-417E-9001-251D3540AD12}" dateTime="2021-05-13T13:29:23" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}">
+  <header guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}" dateTime="2021-05-21T09:33:36" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1123,7 +1142,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{25DA06F6-3848-417E-9001-251D3540AD12}" name="Richard Ketchersid" id="-1739537818" dateTime="2021-05-13T13:29:23"/>
+  <userInfo guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}" name="Richard Ketchersid" id="-1739534807" dateTime="2021-05-21T09:33:36"/>
 </users>
 </file>
 
@@ -1393,44 +1412,44 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
@@ -1508,7 +1527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1517,26 +1536,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="1"/>
@@ -1544,42 +1563,42 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="B15" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="71"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="43"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="71"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="69" t="s">
-        <v>50</v>
+      <c r="C18" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JEdfMgvBemp4+J7Yd98poaE7/X0mPBWTSwDOxO0yC5S6wuPEKHUkvDPdHk/RVx6+8ZMUWea6T423Hm/2FfNxkQ==" saltValue="kYsob8O5bToXfbkwb3P1TQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xe2SDuBOP2SW1QNwsp29pyJ3HPKTmafiqKL7b52kWr2kiWW98k0dxYl+8twt9QrVy5UFLzdYz+DbkwqvBP03PQ==" saltValue="Svm9j544dP8c35R25zLPIg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10:E13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1645,35 +1664,35 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="19"/>
+    <col min="7" max="7" width="14.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="64" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="67" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
@@ -1727,7 +1746,7 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="23" t="str">
         <f>'Percent Change'!A8</f>
         <v xml:space="preserve">your values </v>
@@ -1749,7 +1768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="G9" s="51" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="C12" s="59"/>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
@@ -1798,12 +1817,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="62" t="s">
+    <row r="14" spans="1:8" ht="15" thickBot="1">
+      <c r="D14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="29" t="s">
         <v>20</v>
       </c>
@@ -1813,22 +1832,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="31"/>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1869,7 +1888,7 @@
       <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{E26F86E1-04BA-40E3-BD16-B0B51BEF6C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D3FBF1-ADE2-4725-9D8A-DD603F2274F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1176" windowWidth="14064" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1176" windowWidth="19812" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1172" windowHeight="877" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1651" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="Susan Montgomery - Personal View" guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Original Amount</t>
   </si>
@@ -230,12 +231,15 @@
       <t>Format the decimal form to four decimal places and the "percent form" to two decimals.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Video </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +282,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -743,9 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -793,9 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -825,6 +832,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -907,32 +941,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -941,18 +954,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -966,6 +967,18 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1055,6 +1068,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3224458-754E-44A0-B105-D6649E9EE4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="701040"/>
+          <a:ext cx="291465" cy="291465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1125,8 +1189,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}">
-  <header guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}" dateTime="2021-05-21T09:33:36" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}">
+  <header guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}" dateTime="2021-07-06T18:31:34" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1142,7 +1206,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{4C309B8A-B636-4783-95AF-0DBB56FE5B45}" name="Richard Ketchersid" id="-1739534807" dateTime="2021-05-21T09:33:36"/>
+  <userInfo guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}" name="Richard Ketchersid" id="-1739557071" dateTime="2021-07-06T18:32:16"/>
 </users>
 </file>
 
@@ -1412,14 +1476,14 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1428,35 +1492,35 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1"/>
     <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="32" t="s">
-        <v>6</v>
+      <c r="D5" s="71" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -1499,7 +1563,7 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="13"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -1519,7 +1583,7 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="70"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1536,26 +1600,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.8" customHeight="1" thickBot="1">
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="1"/>
@@ -1563,31 +1627,31 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
@@ -1595,12 +1659,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xe2SDuBOP2SW1QNwsp29pyJ3HPKTmafiqKL7b52kWr2kiWW98k0dxYl+8twt9QrVy5UFLzdYz+DbkwqvBP03PQ==" saltValue="Svm9j544dP8c35R25zLPIg==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="C10" sqref="C10:E13"/>
+      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="8">
@@ -1614,22 +1683,22 @@
     <mergeCell ref="D16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{66755ED4-3614-4EB7-8CFA-93192F3C08E4}"/>
+    <hyperlink ref="D5" r:id="rId3" display="Video on autofill" xr:uid="{66755ED4-3614-4EB7-8CFA-93192F3C08E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{AAE498D7-1C87-4C18-BCE7-C7B64CED6D0A}">
-            <xm:f>AND(NOT($C$4="Your Name"),C7&lt;&gt;Sheet1!C7)</xm:f>
+            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&gt;=0.01)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1639,7 +1708,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{3094A653-A4C3-4433-8820-83D8037BCDCF}">
-            <xm:f>AND(NOT($C$4="Your Name"),C7=Sheet1!C7)</xm:f>
+            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&lt;0.01)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1661,197 +1730,201 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="14.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="18"/>
+    <col min="7" max="7" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1"/>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1"/>
     <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23" t="str">
+      <c r="A7" s="22" t="str">
         <f>'Percent Change'!A7</f>
         <v>Enter your</v>
       </c>
-      <c r="B7" s="23" t="str">
+      <c r="B7" s="22" t="str">
         <f>'Percent Change'!B7</f>
         <v>name in C4 and</v>
       </c>
-      <c r="C7" s="24" t="e">
+      <c r="C7" s="23" t="e">
         <f>B7-A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="24" t="e">
+      <c r="D7" s="23" t="e">
         <f>C7/A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="25" t="e">
+      <c r="E7" s="24" t="e">
         <f>D7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="50"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
-      <c r="A8" s="23" t="str">
+      <c r="A8" s="22" t="str">
         <f>'Percent Change'!A8</f>
         <v xml:space="preserve">your values </v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="22" t="str">
         <f>'Percent Change'!B8</f>
         <v>will appear</v>
       </c>
-      <c r="C8" s="24" t="e">
+      <c r="C8" s="23" t="e">
         <f>B8-A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="24" t="e">
+      <c r="D8" s="23" t="e">
         <f>C8/A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="25" t="e">
+      <c r="E8" s="24" t="e">
         <f>D8</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="G10" s="27" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="G11" s="27" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="G11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1">
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="G12" s="27" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1">
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="29" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="31"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" state="hidden">
       <selection activeCell="A2" sqref="A2:E2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1868,7 +1941,7 @@
     <mergeCell ref="D15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3406,7 +3479,307 @@
       <selection activeCell="B6" sqref="B6:B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" state="hidden">
+      <selection activeCell="B6" sqref="B6:B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b"/>
+    <xsd:import namespace="6588c10b-b5ed-4e95-9d69-08b9b2ce7055"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="21" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="22" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEFD836-FD30-4819-86F9-2317EB0EE1D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b"/>
+    <ds:schemaRef ds:uri="6588c10b-b5ed-4e95-9d69-08b9b2ce7055"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D3FBF1-ADE2-4725-9D8A-DD603F2274F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{2B4CC380-4B4C-41D8-92E9-4308E809F951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1176" windowWidth="19812" windowHeight="10104" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1651" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1362" windowHeight="837" activeSheetId="1"/>
     <customWorkbookView name="Susan Montgomery - Personal View" guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -239,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,15 +282,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -806,6 +797,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,10 +935,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,6 +945,18 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -967,18 +970,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1189,8 +1180,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}">
-  <header guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}" dateTime="2021-07-06T18:31:34" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FC8C6C1E-C9A4-480D-BD77-0A7A6C98E80A}">
+  <header guid="{FC8C6C1E-C9A4-480D-BD77-0A7A6C98E80A}" dateTime="2022-03-28T14:35:24" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1205,9 +1196,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{E477A95C-F54A-446C-9E12-A9E629ABC1EC}" name="Richard Ketchersid" id="-1739557071" dateTime="2021-07-06T18:32:16"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,44 +1465,44 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="32" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="37" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
@@ -1563,7 +1552,7 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="70"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="13"/>
       <c r="G7" s="6" t="s">
         <v>16</v>
@@ -1583,7 +1572,7 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="70"/>
+      <c r="E8" s="32"/>
       <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1591,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1600,26 +1589,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" thickBot="1">
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="1"/>
@@ -1627,28 +1616,28 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" s="31" t="s">
@@ -1662,7 +1651,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1683,12 +1672,12 @@
     <mergeCell ref="D16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId3" display="Video on autofill" xr:uid="{66755ED4-3614-4EB7-8CFA-93192F3C08E4}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{66755ED4-3614-4EB7-8CFA-93192F3C08E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1733,35 +1722,35 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="18"/>
-    <col min="7" max="7" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="1" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="7" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="52" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
-      <c r="A4" s="55" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
@@ -1810,12 +1799,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="H7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="22" t="str">
         <f>'Percent Change'!A8</f>
         <v xml:space="preserve">your values </v>
@@ -1837,18 +1826,18 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
-      <c r="G9" s="58" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
@@ -1857,9 +1846,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
       <c r="G11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1867,10 +1856,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
@@ -1886,12 +1875,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
-      <c r="D14" s="51" t="s">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="28" t="s">
         <v>20</v>
       </c>
@@ -1901,22 +1890,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1941,7 +1930,7 @@
     <mergeCell ref="D15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1961,7 +1950,7 @@
       <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -3489,6 +3478,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3728,25 +3735,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEFD836-FD30-4819-86F9-2317EB0EE1D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3764,22 +3771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{2B4CC380-4B4C-41D8-92E9-4308E809F951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{16B44EE0-7408-4D79-8AF1-9BBCA345B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Random" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Original Amount</t>
   </si>
@@ -234,12 +235,15 @@
   <si>
     <t xml:space="preserve">Video </t>
   </si>
+  <si>
+    <t>Ignore the Halo preview of these files. You must download the file and open it in Excel to see the contents correctly.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +286,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -687,7 +699,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -800,6 +812,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,8 +950,8 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1180,12 +1195,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FC8C6C1E-C9A4-480D-BD77-0A7A6C98E80A}">
-  <header guid="{FC8C6C1E-C9A4-480D-BD77-0A7A6C98E80A}" dateTime="2022-03-28T14:35:24" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="3">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}">
+  <header guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" dateTime="2022-07-20T13:40:22" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+      <sheetId val="4"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1196,7 +1212,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" name="Richard Ketchersid" id="-1739522438" dateTime="2022-07-20T13:40:22"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1481,34 +1499,34 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="33" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1589,26 +1607,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:8">
       <c r="E14" s="1"/>
@@ -1616,28 +1634,28 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" s="31" t="s">
@@ -1715,6 +1733,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5029BD-1F3F-4659-8ADE-18D051EA9DF2}">
+  <dimension ref="D7:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+    </row>
+    <row r="8" spans="4:9" ht="15" customHeight="1">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
+      <selection activeCell="E19" sqref="E19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="D7:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90B7FD0-59F4-4CAB-8656-0D8BCCB1BD32}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1737,20 +1823,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
@@ -1799,10 +1885,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="22" t="str">
@@ -1827,17 +1913,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
@@ -1846,9 +1932,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="G11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1857,9 +1943,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
@@ -1876,11 +1962,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="28" t="s">
         <v>20</v>
       </c>
@@ -1890,22 +1976,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1942,7 +2028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AC65-D95A-4F82-A945-BA06112EA708}">
   <dimension ref="A1:W45"/>
   <sheetViews>
@@ -3478,24 +3564,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3735,25 +3803,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEFD836-FD30-4819-86F9-2317EB0EE1D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3771,4 +3839,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{16B44EE0-7408-4D79-8AF1-9BBCA345B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{7AD382FE-BCEE-44BB-B434-7B306D2427A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
-    <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Random" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="ZZZ" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -874,6 +874,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -949,9 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1195,13 +1195,21 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" diskRevisions="1" revisionId="1" version="2">
   <header guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" dateTime="2022-07-20T13:40:22" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" dateTime="2022-07-20T14:37:11" maxSheetId="5" userName="Richard Ketchersid" r:id="rId2" minRId="1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1211,9 +1219,18 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" action="delete"/>
+  <rcv guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" action="add"/>
+  <rsnm rId="1" sheetId="2" oldName="[QR_2-1_Tech_Template.xlsx]Ignore Halo" newName="[QR_2-1_Tech_Template.xlsx]ZZZ"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" name="Richard Ketchersid" id="-1739522438" dateTime="2022-07-20T13:40:22"/>
+  <userInfo guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" name="Richard Ketchersid" id="-1739578853" dateTime="2022-07-20T14:35:13"/>
 </users>
 </file>
 
@@ -1483,7 +1500,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1669,7 +1686,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C24" sqref="C24"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -1733,74 +1750,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5029BD-1F3F-4659-8ADE-18D051EA9DF2}">
-  <dimension ref="D7:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="4:9">
-      <c r="D7" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="4:9" ht="15" customHeight="1">
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
-      <selection activeCell="E19" sqref="E19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="D7:I11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90B7FD0-59F4-4CAB-8656-0D8BCCB1BD32}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1823,20 +1772,20 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
@@ -1885,10 +1834,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="22" t="str">
@@ -1913,17 +1862,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="61"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="G10" s="26" t="s">
         <v>12</v>
       </c>
@@ -1932,9 +1881,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="G11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1943,9 +1892,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="G12" s="26" t="s">
         <v>16</v>
       </c>
@@ -1962,11 +1911,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="28" t="s">
         <v>20</v>
       </c>
@@ -1976,22 +1925,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="30"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2028,7 +1977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AC65-D95A-4F82-A945-BA06112EA708}">
   <dimension ref="A1:W45"/>
   <sheetViews>
@@ -3563,7 +3512,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5029BD-1F3F-4659-8ADE-18D051EA9DF2}">
+  <dimension ref="D7:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="4:9" ht="15" customHeight="1">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" state="hidden">
+      <selection activeCell="F25" sqref="F25"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="D7:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3803,15 +3829,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3822,6 +3839,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DEFD836-FD30-4819-86F9-2317EB0EE1D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3841,14 +3866,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
   <ds:schemaRefs>

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{7AD382FE-BCEE-44BB-B434-7B306D2427A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{E40FA219-51AD-4185-972A-CCD0B237A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent Change" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Random" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="ZZZ" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="ZZZ" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="174" yWindow="98" windowWidth="1362" windowHeight="837" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" mergeInterval="0" personalView="1" xWindow="64" yWindow="64" windowWidth="1606" windowHeight="950" activeSheetId="1"/>
     <customWorkbookView name="Susan Montgomery - Personal View" guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,6 +43,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
+    <t>Upon filling in your name, your personal numbers will appear.</t>
+  </si>
+  <si>
+    <t>Enter Your Name (5 letters)</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video </t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>Cell Should Contain</t>
+  </si>
+  <si>
     <t>Original Amount</t>
   </si>
   <si>
@@ -57,33 +76,6 @@
     <t>% Change (percent form)</t>
   </si>
   <si>
-    <t>Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  Format the decimal form to four decima places and the "percent form" to two decimals.</t>
-  </si>
-  <si>
-    <t>Video on autofill</t>
-  </si>
-  <si>
-    <t>percentage change =</t>
-  </si>
-  <si>
-    <t>(New - Original)/Original</t>
-  </si>
-  <si>
-    <t>New/Original - 1</t>
-  </si>
-  <si>
-    <t>Change/Original</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>If a cell is shaded</t>
-  </si>
-  <si>
-    <t>Cell Should Contain</t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -106,96 +98,6 @@
   </si>
   <si>
     <t>Make no changes</t>
-  </si>
-  <si>
-    <t>Enter Your Name (5 letters)</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>Rand1</t>
-  </si>
-  <si>
-    <t>Rand2</t>
-  </si>
-  <si>
-    <t>Rand3</t>
-  </si>
-  <si>
-    <t>Rand4</t>
-  </si>
-  <si>
-    <t>Rand5</t>
-  </si>
-  <si>
-    <t>Rand6</t>
-  </si>
-  <si>
-    <t>Rand7</t>
-  </si>
-  <si>
-    <t>Rand8</t>
-  </si>
-  <si>
-    <t>Rand9</t>
-  </si>
-  <si>
-    <t>Rand10</t>
-  </si>
-  <si>
-    <t>Rand11</t>
-  </si>
-  <si>
-    <t>Rand12</t>
-  </si>
-  <si>
-    <t>Rand13</t>
-  </si>
-  <si>
-    <t>Rand14</t>
-  </si>
-  <si>
-    <t>Rand15</t>
-  </si>
-  <si>
-    <t>Rand16</t>
-  </si>
-  <si>
-    <t>Rand17</t>
-  </si>
-  <si>
-    <t>Rand18</t>
-  </si>
-  <si>
-    <t>Rand19</t>
-  </si>
-  <si>
-    <t>Rand20</t>
-  </si>
-  <si>
-    <t>Rand21</t>
-  </si>
-  <si>
-    <t>Rand22</t>
-  </si>
-  <si>
-    <t>Your Name</t>
-  </si>
-  <si>
-    <t>Upon filling in your name, your personal numbers will appear.</t>
-  </si>
-  <si>
-    <t>New - Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change = </t>
-  </si>
-  <si>
-    <t>(New - Original)/Original  = Change/Original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percentage change =  </t>
   </si>
   <si>
     <r>
@@ -233,7 +135,106 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Video </t>
+    <t xml:space="preserve">percentage change =  </t>
+  </si>
+  <si>
+    <t>(New - Original)/Original  = Change/Original</t>
+  </si>
+  <si>
+    <t>New/Original - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change = </t>
+  </si>
+  <si>
+    <t>New - Original</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>Video on autofill</t>
+  </si>
+  <si>
+    <t>Use formulas to calculate the Amount of Change, % Change (decimal form), and % Change (percent form) in cells C2, D2, E2, C3, D3, and E3.  Format the decimal form to four decima places and the "percent form" to two decimals.</t>
+  </si>
+  <si>
+    <t>(New - Original)/Original</t>
+  </si>
+  <si>
+    <t>percentage change =</t>
+  </si>
+  <si>
+    <t>Change/Original</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Rand1</t>
+  </si>
+  <si>
+    <t>Rand2</t>
+  </si>
+  <si>
+    <t>Rand3</t>
+  </si>
+  <si>
+    <t>Rand4</t>
+  </si>
+  <si>
+    <t>Rand5</t>
+  </si>
+  <si>
+    <t>Rand6</t>
+  </si>
+  <si>
+    <t>Rand7</t>
+  </si>
+  <si>
+    <t>Rand8</t>
+  </si>
+  <si>
+    <t>Rand9</t>
+  </si>
+  <si>
+    <t>Rand10</t>
+  </si>
+  <si>
+    <t>Rand11</t>
+  </si>
+  <si>
+    <t>Rand12</t>
+  </si>
+  <si>
+    <t>Rand13</t>
+  </si>
+  <si>
+    <t>Rand14</t>
+  </si>
+  <si>
+    <t>Rand15</t>
+  </si>
+  <si>
+    <t>Rand16</t>
+  </si>
+  <si>
+    <t>Rand17</t>
+  </si>
+  <si>
+    <t>Rand18</t>
+  </si>
+  <si>
+    <t>Rand19</t>
+  </si>
+  <si>
+    <t>Rand20</t>
+  </si>
+  <si>
+    <t>Rand21</t>
+  </si>
+  <si>
+    <t>Rand22</t>
   </si>
   <si>
     <t>Ignore the Halo preview of these files. You must download the file and open it in Excel to see the contents correctly.</t>
@@ -699,9 +700,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -737,10 +737,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
@@ -748,15 +748,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -766,7 +762,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -774,11 +770,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -803,9 +799,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -853,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,9 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -929,7 +919,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -952,6 +942,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1195,21 +1188,13 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" diskRevisions="1" revisionId="1" version="2">
-  <header guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" dateTime="2022-07-20T13:40:22" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}">
+  <header guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}" dateTime="2022-09-08T14:54:41" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" dateTime="2022-07-20T14:37:11" maxSheetId="5" userName="Richard Ketchersid" r:id="rId2" minRId="1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1219,18 +1204,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" action="delete"/>
-  <rcv guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}" action="add"/>
-  <rsnm rId="1" sheetId="2" oldName="[QR_2-1_Tech_Template.xlsx]Ignore Halo" newName="[QR_2-1_Tech_Template.xlsx]ZZZ"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{CAB9540D-B0CF-42A1-8201-F8F28DFDFC93}" name="Richard Ketchersid" id="-1739522438" dateTime="2022-07-20T13:40:22"/>
-  <userInfo guid="{B50912F6-D886-439A-8C2D-9AEE28C65B29}" name="Richard Ketchersid" id="-1739578853" dateTime="2022-07-20T14:35:13"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}" name="Richard Ketchersid" id="-1739531054" dateTime="2022-09-08T14:54:41"/>
 </users>
 </file>
 
@@ -1500,199 +1476,192 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="38"/>
+    <row r="1" spans="1:8" ht="15" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="str">
+      <c r="A7" s="14" t="str">
         <f>IF(C4="Your Name","Enter your",ROUND(Random!D14*10,2))</f>
         <v>Enter your</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="14" t="str">
         <f>IF(C4="Your Name","name in C4 and",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
         <v>name in C4 and</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16" t="str">
+      <c r="A8" s="14" t="str">
         <f>IF(C4="Your Name","your values ",ROUND(Random!D15*10,2))</f>
         <v xml:space="preserve">your values </v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="14" t="str">
         <f>IF(C4="Your Name","will appear",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
         <v>will appear</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="32"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
+      <c r="G9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="C10" s="39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="8" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" thickBot="1">
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="C10" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="49"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="C18" s="31" t="s">
-        <v>49</v>
+      <c r="C18" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="42NaJ9GhFUIEqpSeTnLPboL+9t2Hem6X48B5PtC6gR7tc6t6eux7+5H+vUHlvLZY2vUjletf3OEJ1dLmb/HMxQ==" saltValue="fsCwtHhC/tGModN4zwZdaA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{4BAD3247-7C98-43DD-8E27-2A61F2E9C82A}">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}">
       <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
@@ -1757,190 +1726,189 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
-    <col min="7" max="7" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="15.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="16"/>
+    <col min="7" max="7" width="14.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A2" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A4" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="19" t="s">
-        <v>46</v>
+    <row r="1" spans="1:8" ht="15" thickBot="1"/>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1"/>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
+      <c r="A4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>4</v>
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22" t="str">
+      <c r="A7" s="20" t="str">
         <f>'Percent Change'!A7</f>
         <v>Enter your</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="20" t="str">
         <f>'Percent Change'!B7</f>
         <v>name in C4 and</v>
       </c>
-      <c r="C7" s="23" t="e">
+      <c r="C7" s="21" t="e">
         <f>B7-A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="23" t="e">
+      <c r="D7" s="21" t="e">
         <f>C7/A7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E7" s="24" t="e">
+      <c r="E7" s="22" t="e">
         <f>D7</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A8" s="22" t="str">
+      <c r="F7" s="23"/>
+      <c r="G7" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
+      <c r="A8" s="20" t="str">
         <f>'Percent Change'!A8</f>
         <v xml:space="preserve">your values </v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="20" t="str">
         <f>'Percent Change'!B8</f>
         <v>will appear</v>
       </c>
-      <c r="C8" s="23" t="e">
+      <c r="C8" s="21" t="e">
         <f>B8-A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="23" t="e">
+      <c r="D8" s="21" t="e">
         <f>C8/A8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E8" s="24" t="e">
+      <c r="E8" s="22" t="e">
         <f>D8</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
-      <c r="G9" s="61" t="s">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
+      <c r="G9" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="58"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="G10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="G11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="G10" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="27" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1">
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="G12" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="G11" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="27" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="G12" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="27" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1">
+      <c r="D14" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="26" t="s">
+      <c r="H14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D14" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30"/>
-      <c r="B15" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="D16" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1950,7 +1918,7 @@
     </customSheetView>
     <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" state="hidden">
       <selection activeCell="A2" sqref="A2:E2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="9">
@@ -1985,7 +1953,7 @@
       <selection activeCell="B6" sqref="B6:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -2614,7 +2582,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
@@ -2677,7 +2645,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
@@ -2752,9 +2720,9 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22544</v>
       </c>
@@ -2827,9 +2795,9 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>3849</v>
       </c>
@@ -2899,9 +2867,9 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="10">
+        <v>35</v>
+      </c>
+      <c r="B15" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>21774</v>
       </c>
@@ -2971,9 +2939,9 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="10">
+        <v>36</v>
+      </c>
+      <c r="B16" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>11055</v>
       </c>
@@ -3043,9 +3011,9 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="10">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>25916</v>
       </c>
@@ -3115,9 +3083,9 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>4805</v>
       </c>
@@ -3136,9 +3104,9 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>13338</v>
       </c>
@@ -3157,9 +3125,9 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="10">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>19275</v>
       </c>
@@ -3178,9 +3146,9 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="10">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>6440</v>
       </c>
@@ -3199,9 +3167,9 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="10">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>5697</v>
       </c>
@@ -3217,13 +3185,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="10">
+        <v>43</v>
+      </c>
+      <c r="B23" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>30694</v>
       </c>
@@ -3239,13 +3207,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="10">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>20775</v>
       </c>
@@ -3261,13 +3229,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="10">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>8148</v>
       </c>
@@ -3283,13 +3251,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="10">
+        <v>46</v>
+      </c>
+      <c r="B26" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>21885</v>
       </c>
@@ -3305,13 +3273,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M26" s="10"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="10">
+        <v>47</v>
+      </c>
+      <c r="B27" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>11378</v>
       </c>
@@ -3327,13 +3295,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="10">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>22723</v>
       </c>
@@ -3349,13 +3317,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="10">
+        <v>49</v>
+      </c>
+      <c r="B29" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>25920</v>
       </c>
@@ -3371,13 +3339,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M29" s="10"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="10">
+        <v>50</v>
+      </c>
+      <c r="B30" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>19577</v>
       </c>
@@ -3393,13 +3361,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="10"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="10">
+        <v>51</v>
+      </c>
+      <c r="B31" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>7614</v>
       </c>
@@ -3415,13 +3383,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M31" s="10"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="10">
+        <v>52</v>
+      </c>
+      <c r="B32" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>15903</v>
       </c>
@@ -3437,13 +3405,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="10">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9">
         <f t="shared" ca="1" si="3"/>
         <v>5484</v>
       </c>
@@ -3459,43 +3427,43 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="10"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="M34" s="10"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="M35" s="10"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="M36" s="10"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="M37" s="10"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="M38" s="10"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="M39" s="10"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="M40" s="10"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="M41" s="10"/>
+      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="M42" s="10"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="M43" s="10"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="M44" s="10"/>
+      <c r="M44" s="9"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="M45" s="10"/>
+      <c r="M45" s="9"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3505,7 +3473,7 @@
     </customSheetView>
     <customSheetView guid="{CCDC3355-43F0-477A-8739-942F185F77AA}" state="hidden">
       <selection activeCell="B6" sqref="B6:B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,49 +3488,49 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="4:9" ht="15" customHeight="1">
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="4:9">
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="4:9">
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="4:9">
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-1_Tech_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{E40FA219-51AD-4185-972A-CCD0B237A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F2944063-DD81-4858-9913-3E6D852C16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Upon filling in your name, your personal numbers will appear.</t>
   </si>
@@ -957,18 +957,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -978,6 +966,18 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1188,8 +1188,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}">
-  <header guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}" dateTime="2022-09-08T14:54:41" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F7D72896-E9DF-4DCB-81A2-B7AC1CCEB472}">
+  <header guid="{F7D72896-E9DF-4DCB-81A2-B7AC1CCEB472}" dateTime="2023-08-10T14:06:09" maxSheetId="5" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1206,7 +1206,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{978A6E23-BB4E-4A88-96B0-1DC8702C59A6}" name="Richard Ketchersid" id="-1739531054" dateTime="2022-09-08T14:54:41"/>
+  <userInfo guid="{F7D72896-E9DF-4DCB-81A2-B7AC1CCEB472}" name="Richard Ketchersid" id="-1739539468" dateTime="2023-08-10T14:06:09"/>
 </users>
 </file>
 
@@ -1507,9 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="37"/>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="13"/>
       <c r="G4" s="34" t="s">
         <v>2</v>
       </c>
@@ -1553,17 +1551,17 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="str">
-        <f>IF(C4="Your Name","Enter your",ROUND(Random!D14*10,2))</f>
-        <v>Enter your</v>
-      </c>
-      <c r="B7" s="14" t="str">
-        <f>IF(C4="Your Name","name in C4 and",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
-        <v>name in C4 and</v>
+      <c r="A7" s="14" t="e">
+        <f ca="1">IF(C4="Your Name","Enter your",ROUND(Random!D14*10,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="14" t="e">
+        <f ca="1">IF(C4="Your Name","name in C4 and",ROUND(Random!D14*10*(1+(1-2*Random!C20)*Random!D25),2))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="12"/>
       <c r="G7" s="5" t="s">
         <v>13</v>
@@ -1573,13 +1571,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="str">
-        <f>IF(C4="Your Name","your values ",ROUND(Random!D15*10,2))</f>
-        <v xml:space="preserve">your values </v>
-      </c>
-      <c r="B8" s="14" t="str">
-        <f>IF(C4="Your Name","will appear",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
-        <v>will appear</v>
+      <c r="A8" s="14" t="e">
+        <f ca="1">IF(C4="Your Name","your values ",ROUND(Random!D15*10,2))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="14" t="e">
+        <f ca="1">IF(C4="Your Name","will appear",ROUND(Random!D15*10*(1+(1-2*Random!C21)*Random!D26),2))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1676,7 +1674,7 @@
     <mergeCell ref="D16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1691,7 +1689,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{AAE498D7-1C87-4C18-BCE7-C7B64CED6D0A}">
-            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&gt;=0.01)</xm:f>
+            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&gt;=0.0001)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1701,7 +1699,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{3094A653-A4C3-4433-8820-83D8037BCDCF}">
-            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&lt;0.01)</xm:f>
+            <xm:f>AND(NOT($C$4="Your Name"),ABS((C7-Sheet1!C7)/Sheet1!C7)&lt;0.0001)</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -1782,24 +1780,24 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="str">
-        <f>'Percent Change'!A7</f>
-        <v>Enter your</v>
-      </c>
-      <c r="B7" s="20" t="str">
-        <f>'Percent Change'!B7</f>
-        <v>name in C4 and</v>
+      <c r="A7" s="20" t="e">
+        <f ca="1">'Percent Change'!A7</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="20" t="e">
+        <f ca="1">'Percent Change'!B7</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="21" t="e">
-        <f>B7-A7</f>
+        <f ca="1">B7-A7</f>
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="21" t="e">
-        <f>C7/A7</f>
+        <f ca="1">C7/A7</f>
         <v>#VALUE!</v>
       </c>
       <c r="E7" s="22" t="e">
-        <f>D7</f>
+        <f ca="1">D7</f>
         <v>#VALUE!</v>
       </c>
       <c r="F7" s="23"/>
@@ -1809,24 +1807,24 @@
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
-      <c r="A8" s="20" t="str">
-        <f>'Percent Change'!A8</f>
-        <v xml:space="preserve">your values </v>
-      </c>
-      <c r="B8" s="20" t="str">
-        <f>'Percent Change'!B8</f>
-        <v>will appear</v>
+      <c r="A8" s="20" t="e">
+        <f ca="1">'Percent Change'!A8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="20" t="e">
+        <f ca="1">'Percent Change'!B8</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="21" t="e">
-        <f>B8-A8</f>
+        <f ca="1">B8-A8</f>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="21" t="e">
-        <f>C8/A8</f>
+        <f ca="1">C8/A8</f>
         <v>#VALUE!</v>
       </c>
       <c r="E8" s="22" t="e">
-        <f>D8</f>
+        <f ca="1">D8</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1933,7 +1931,7 @@
     <mergeCell ref="D15:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C$4="Your Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2224,21 +2222,21 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="e">
         <f>CODE(MID('Percent Change'!C$4,A6,1))</f>
-        <v>89</v>
-      </c>
-      <c r="C6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="e">
         <f>MOD(B6,16)</f>
-        <v>9</v>
-      </c>
-      <c r="D6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e">
         <f>MOD((B6-C6)/16,16)</f>
-        <v>5</v>
-      </c>
-      <c r="E6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e">
         <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
-        <v>439</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2296,21 +2294,21 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="e">
         <f>CODE(MID('Percent Change'!C$4,A7,1))</f>
-        <v>111</v>
-      </c>
-      <c r="C7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="e">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
-        <v>15</v>
-      </c>
-      <c r="D7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
-        <v>6</v>
-      </c>
-      <c r="E7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
-        <v>839</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2368,21 +2366,21 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="e">
         <f>CODE(MID('Percent Change'!C$4,A8,1))</f>
-        <v>117</v>
-      </c>
-      <c r="C8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" t="e">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -2440,21 +2438,21 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="e">
         <f>CODE(MID('Percent Change'!C$4,A9,1))</f>
-        <v>114</v>
-      </c>
-      <c r="C9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" t="e">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -2512,21 +2510,21 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="e">
         <f>CODE(MID('Percent Change'!C$4,A10,1))</f>
-        <v>32</v>
-      </c>
-      <c r="C10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -2584,9 +2582,9 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="e">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
-        <v>3778</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F11">
         <v>1103515245</v>
@@ -2647,21 +2645,21 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="e">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
-        <v>5331</v>
-      </c>
-      <c r="C12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="e">
         <f ca="1">MOD(B12,2)</f>
-        <v>1</v>
-      </c>
-      <c r="D12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" t="e">
         <f ca="1">B12/F$13</f>
-        <v>0.162689208984375</v>
-      </c>
-      <c r="E12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" t="e">
         <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12">
         <v>12345</v>
@@ -2722,21 +2720,21 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="9" t="e">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
-        <v>22544</v>
-      </c>
-      <c r="C13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="e">
         <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="D13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" t="e">
         <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
-        <v>0.68798828125</v>
-      </c>
-      <c r="E13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="e">
         <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13">
         <v>32768</v>
@@ -2797,21 +2795,21 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3849</v>
-      </c>
-      <c r="C14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.117462158203125</v>
-      </c>
-      <c r="E14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -2869,21 +2867,21 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>21774</v>
-      </c>
-      <c r="C15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66448974609375</v>
-      </c>
-      <c r="E15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -2941,21 +2939,21 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>11055</v>
-      </c>
-      <c r="C16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.337371826171875</v>
-      </c>
-      <c r="E16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -3013,21 +3011,21 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>25916</v>
-      </c>
-      <c r="C17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7908935546875</v>
-      </c>
-      <c r="E17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -3085,105 +3083,105 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4805</v>
-      </c>
-      <c r="C18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.146636962890625</v>
-      </c>
-      <c r="E18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>13338</v>
-      </c>
-      <c r="C19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40704345703125</v>
-      </c>
-      <c r="E19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>19275</v>
-      </c>
-      <c r="C20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.588226318359375</v>
-      </c>
-      <c r="E20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6440</v>
-      </c>
-      <c r="C21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.196533203125</v>
-      </c>
-      <c r="E21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5697</v>
-      </c>
-      <c r="C22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C22" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.173858642578125</v>
-      </c>
-      <c r="E22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -3191,21 +3189,21 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>30694</v>
-      </c>
-      <c r="C23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93670654296875</v>
-      </c>
-      <c r="E23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -3213,21 +3211,21 @@
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>20775</v>
-      </c>
-      <c r="C24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.634002685546875</v>
-      </c>
-      <c r="E24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -3235,21 +3233,21 @@
       <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>8148</v>
-      </c>
-      <c r="C25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2486572265625</v>
-      </c>
-      <c r="E25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -3257,21 +3255,21 @@
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>21885</v>
-      </c>
-      <c r="C26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.667877197265625</v>
-      </c>
-      <c r="E26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M26" s="9"/>
     </row>
@@ -3279,21 +3277,21 @@
       <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>11378</v>
-      </c>
-      <c r="C27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34722900390625</v>
-      </c>
-      <c r="E27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3301,21 +3299,21 @@
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>22723</v>
-      </c>
-      <c r="C28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.693450927734375</v>
-      </c>
-      <c r="E28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M28" s="9"/>
     </row>
@@ -3323,21 +3321,21 @@
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>25920</v>
-      </c>
-      <c r="C29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.791015625</v>
-      </c>
-      <c r="E29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M29" s="9"/>
     </row>
@@ -3345,21 +3343,21 @@
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>19577</v>
-      </c>
-      <c r="C30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="D30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.597442626953125</v>
-      </c>
-      <c r="E30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M30" s="9"/>
     </row>
@@ -3367,21 +3365,21 @@
       <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>7614</v>
-      </c>
-      <c r="C31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23236083984375</v>
-      </c>
-      <c r="E31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M31" s="9"/>
     </row>
@@ -3389,21 +3387,21 @@
       <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>15903</v>
-      </c>
-      <c r="C32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.485321044921875</v>
-      </c>
-      <c r="E32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M32" s="9"/>
     </row>
@@ -3411,21 +3409,21 @@
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5484</v>
-      </c>
-      <c r="C33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1673583984375</v>
-      </c>
-      <c r="E33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M33" s="9"/>
     </row>
@@ -3549,12 +3547,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3798,18 +3796,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3835,11 +3835,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945F3AE1-9BD0-4BCF-A6FD-932ADCD78A39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4248261A-3D09-4E75-A1C3-3D294EFE11B4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>